--- a/evaluation/results/isolation_forest/augmented/noise_1/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_1/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8879003558718861</v>
+        <v>0.304270462633452</v>
       </c>
       <c r="C2">
-        <v>0.2307692307692308</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="D2">
-        <v>0.5357142857142857</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.3225806451612903</v>
+        <v>0.1133786848072562</v>
       </c>
       <c r="F2">
-        <v>0.423728813559322</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G2">
-        <v>0.5098039215686274</v>
+        <v>0.5840071877807727</v>
       </c>
       <c r="H2">
-        <v>0.7210406634563937</v>
+        <v>0.7670211342964153</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="K2">
-        <v>484</v>
+        <v>146</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9738430583501007</v>
+        <v>0.9798657718120806</v>
       </c>
       <c r="C2">
-        <v>0.9063670411985019</v>
+        <v>0.2734082397003745</v>
       </c>
       <c r="D2">
-        <v>0.938894277400582</v>
+        <v>0.4275256222547584</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2307692307692308</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="C3">
-        <v>0.5357142857142857</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.3225806451612903</v>
+        <v>0.1133786848072562</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8879003558718861</v>
+        <v>0.304270462633452</v>
       </c>
       <c r="C4">
-        <v>0.8879003558718861</v>
+        <v>0.304270462633452</v>
       </c>
       <c r="D4">
-        <v>0.8879003558718861</v>
+        <v>0.304270462633452</v>
       </c>
       <c r="E4">
-        <v>0.8879003558718861</v>
+        <v>0.304270462633452</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6023061445596657</v>
+        <v>0.5201992297317062</v>
       </c>
       <c r="C5">
-        <v>0.7210406634563937</v>
+        <v>0.5831326912787587</v>
       </c>
       <c r="D5">
-        <v>0.6307374612809361</v>
+        <v>0.2704521535310073</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9368215865133314</v>
+        <v>0.9340627000033601</v>
       </c>
       <c r="C6">
-        <v>0.8879003558718861</v>
+        <v>0.304270462633452</v>
       </c>
       <c r="D6">
-        <v>0.9081882601359909</v>
+        <v>0.4118741734139576</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
